--- a/html/resources/1condition/trialsB6.xlsx
+++ b/html/resources/1condition/trialsB6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFC38E-130E-A34B-B265-71BF200C3739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA37670-0FBD-D54C-AC58-E1A15893A227}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>stimuli/bead_y.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>stimuli/bead_g.PNG</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -444,16 +444,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -476,13 +476,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -491,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -511,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -534,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -569,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -636,10 +636,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -714,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -743,16 +743,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -772,19 +772,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -804,16 +804,16 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -917,16 +917,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -946,19 +946,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0</v>
